--- a/InputFiles/Testfile4.xlsx
+++ b/InputFiles/Testfile4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\strucpy\Examples\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F577AC0E-BDF2-43D4-A706-A44EA7BA618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B900D3-9E35-4300-901C-FB784410CB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="members" sheetId="1" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5118,8 +5118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
